--- a/BackTest/2020-01-23 BackTest TRX.xlsx
+++ b/BackTest/2020-01-23 BackTest TRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,14 +583,10 @@
         <v>227150.7620941199</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>19.46</v>
-      </c>
-      <c r="J6" t="n">
-        <v>19.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -623,14 +619,8 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>19.46</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -662,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>19.46</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -1061,14 +1045,10 @@
         <v>172957.1922481599</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>19.47</v>
-      </c>
-      <c r="J20" t="n">
-        <v>19.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
@@ -1101,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>19.47</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1140,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>19.47</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -2100,7 +2068,7 @@
         <v>404231.80320908</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2166,7 +2134,7 @@
         <v>472544.05210908</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2232,7 +2200,7 @@
         <v>479942.73170908</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2298,7 +2266,7 @@
         <v>480198.4970152</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2562,14 +2530,10 @@
         <v>419531.5442151999</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>19.54</v>
-      </c>
-      <c r="J65" t="n">
-        <v>19.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
@@ -2602,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>19.54</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2641,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>19.54</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2680,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>19.54</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2719,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>19.54</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2758,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>19.54</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2797,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>19.54</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2836,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>19.54</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2872,15 +2794,15 @@
         <v>-2606095.6102848</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>19.54</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>19.47</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -2911,12 +2833,12 @@
         <v>-2606210.1524848</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>19.54</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>19.43</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2950,12 +2872,12 @@
         <v>-2606153.5971848</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>19.54</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2989,12 +2911,12 @@
         <v>-2608669.78836108</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>19.54</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>19.45</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3028,14 +2950,12 @@
         <v>-2608669.78836108</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>19.4</v>
       </c>
-      <c r="J77" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3069,14 +2989,12 @@
         <v>-2611669.78836108</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>19.4</v>
       </c>
-      <c r="J78" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3110,14 +3028,12 @@
         <v>-2623909.01876108</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>19.34</v>
       </c>
-      <c r="J79" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3151,14 +3067,12 @@
         <v>-2502043.50286108</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>19.3</v>
       </c>
-      <c r="J80" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3192,14 +3106,12 @@
         <v>-2501163.50286108</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>19.37</v>
       </c>
-      <c r="J81" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3233,14 +3145,12 @@
         <v>350268.7114389203</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>19.45</v>
       </c>
-      <c r="J82" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3277,9 +3187,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3316,9 +3224,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3355,9 +3261,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3394,9 +3298,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3433,9 +3335,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3472,9 +3372,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3511,9 +3409,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3550,9 +3446,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3589,9 +3483,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3628,9 +3520,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3667,9 +3557,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3706,9 +3594,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3745,9 +3631,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3784,9 +3668,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3823,9 +3705,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3862,9 +3742,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3901,9 +3779,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3940,9 +3816,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3979,9 +3853,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4018,9 +3890,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4057,9 +3927,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4096,9 +3964,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4135,9 +4001,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4174,9 +4038,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4213,9 +4075,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4252,9 +4112,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4291,9 +4149,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4330,9 +4186,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4369,9 +4223,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4408,9 +4260,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4447,9 +4297,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4486,9 +4334,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4525,9 +4371,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4561,14 +4405,10 @@
         <v>1354184.118496481</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>19.68</v>
-      </c>
-      <c r="J116" t="n">
-        <v>19.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4605,9 +4445,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4644,9 +4482,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4683,9 +4519,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4722,9 +4556,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4761,9 +4593,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4800,9 +4630,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4839,9 +4667,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4878,9 +4704,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4917,9 +4741,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4956,9 +4778,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4995,9 +4815,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5034,9 +4852,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5073,9 +4889,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5112,9 +4926,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5151,9 +4963,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5190,9 +5000,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5229,9 +5037,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5268,9 +5074,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5307,9 +5111,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5346,9 +5148,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5385,9 +5185,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5424,9 +5222,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5463,9 +5259,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5502,9 +5296,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5541,9 +5333,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5580,9 +5370,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5619,9 +5407,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5658,9 +5444,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5697,9 +5481,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5736,9 +5518,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5775,9 +5555,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5814,9 +5592,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5853,9 +5629,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5892,9 +5666,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5931,9 +5703,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5970,9 +5740,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6009,9 +5777,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6048,9 +5814,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6087,9 +5851,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6126,9 +5888,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6165,9 +5925,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6204,9 +5962,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6243,9 +5999,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6282,9 +6036,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6321,9 +6073,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6360,9 +6110,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6399,9 +6147,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6438,9 +6184,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6477,9 +6221,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6516,9 +6258,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6555,9 +6295,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6594,9 +6332,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6633,9 +6369,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6672,9 +6406,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6711,9 +6443,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6750,9 +6480,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6789,9 +6517,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6828,9 +6554,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6867,9 +6591,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6906,9 +6628,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6945,9 +6665,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6984,9 +6702,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7023,9 +6739,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7062,9 +6776,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7101,9 +6813,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7140,9 +6850,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7179,9 +6887,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7218,9 +6924,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7257,9 +6961,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7296,9 +6998,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7335,9 +7035,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7374,9 +7072,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7413,9 +7109,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7452,9 +7146,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7491,9 +7183,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7530,9 +7220,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7569,9 +7257,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7608,9 +7294,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7647,9 +7331,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7686,9 +7368,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7725,9 +7405,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7764,9 +7442,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7803,9 +7479,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7842,9 +7516,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7881,9 +7553,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7920,9 +7590,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7959,9 +7627,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7998,9 +7664,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8037,9 +7701,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8076,9 +7738,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8115,9 +7775,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8154,9 +7812,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8193,9 +7849,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8232,9 +7886,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8271,9 +7923,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8310,9 +7960,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8349,9 +7997,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8388,9 +8034,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8427,9 +8071,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8466,9 +8108,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8505,9 +8145,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8544,9 +8182,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8583,9 +8219,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8622,9 +8256,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8661,9 +8293,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8700,9 +8330,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8739,9 +8367,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8778,9 +8404,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8817,9 +8441,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8856,9 +8478,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8895,9 +8515,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8934,9 +8552,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8973,9 +8589,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9012,9 +8626,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9051,9 +8663,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9090,9 +8700,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9129,9 +8737,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9168,9 +8774,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9207,9 +8811,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9246,9 +8848,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9282,19 +8882,17 @@
         <v>2452599.32192595</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L237" t="n">
-        <v>1.017006141248721</v>
+        <v>1</v>
       </c>
       <c r="M237" t="inlineStr"/>
     </row>
@@ -9321,11 +8919,15 @@
         <v>2450590.35262595</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9358,7 +8960,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9391,7 +8997,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9424,7 +9034,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9457,7 +9071,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9490,7 +9108,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9523,7 +9145,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9556,7 +9182,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9589,7 +9219,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9622,7 +9256,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9655,7 +9293,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9688,7 +9330,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9721,7 +9367,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9754,7 +9404,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9787,7 +9441,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9820,7 +9478,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9853,7 +9515,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9886,7 +9552,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9919,7 +9589,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9952,7 +9626,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9985,7 +9663,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10018,7 +9700,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10051,7 +9737,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10084,7 +9774,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10117,7 +9811,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10150,7 +9848,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10183,7 +9885,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10216,7 +9922,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10249,7 +9959,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10282,7 +9996,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10315,7 +10033,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10348,7 +10070,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10381,7 +10107,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10414,7 +10144,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10447,7 +10181,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10480,7 +10218,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10513,7 +10255,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10546,7 +10292,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10579,7 +10329,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10612,7 +10366,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10645,7 +10403,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10678,7 +10440,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10711,7 +10477,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10744,7 +10514,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10777,7 +10551,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10810,7 +10588,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10839,11 +10621,15 @@
         <v>2443859.26703589</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10872,11 +10658,15 @@
         <v>2444005.6219369</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10905,11 +10695,15 @@
         <v>2443837.6219369</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10938,11 +10732,15 @@
         <v>2440247.5174369</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10971,11 +10769,15 @@
         <v>2116508.6600369</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11008,7 +10810,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11041,7 +10847,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11074,7 +10884,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11107,7 +10921,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11140,7 +10958,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11173,7 +10995,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11202,11 +11028,15 @@
         <v>2085388.32512349</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11239,7 +11069,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11272,7 +11106,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11305,7 +11143,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11338,7 +11180,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11371,7 +11217,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11404,7 +11254,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11437,7 +11291,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11470,7 +11328,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11503,7 +11365,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11536,7 +11402,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11569,7 +11439,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11602,7 +11476,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11635,7 +11513,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11668,7 +11550,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11701,7 +11587,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11734,7 +11624,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11767,7 +11661,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11800,7 +11698,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11833,7 +11735,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11866,7 +11772,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11899,7 +11809,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11932,7 +11846,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11965,7 +11883,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11998,7 +11920,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12031,7 +11957,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12064,7 +11994,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12097,7 +12031,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12130,7 +12068,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12163,7 +12105,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12196,7 +12142,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12229,7 +12179,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12262,7 +12216,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12295,7 +12253,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12328,7 +12290,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12361,7 +12327,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12394,7 +12364,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12427,7 +12401,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12460,7 +12438,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12493,7 +12475,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12526,7 +12512,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12559,7 +12549,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12592,7 +12586,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12625,7 +12623,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12658,7 +12660,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12691,7 +12697,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12724,7 +12734,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12757,7 +12771,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12790,7 +12808,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12823,7 +12845,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12856,7 +12882,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12889,7 +12919,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12922,7 +12956,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12955,7 +12993,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12988,7 +13030,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13021,7 +13067,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13054,7 +13104,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13087,7 +13141,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13120,7 +13178,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13153,7 +13215,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13186,7 +13252,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13219,7 +13289,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13252,7 +13326,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13285,7 +13363,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13318,7 +13400,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13351,7 +13437,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13384,7 +13474,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13417,7 +13511,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13450,7 +13548,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13483,7 +13585,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13516,7 +13622,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13549,7 +13659,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13582,7 +13696,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13615,7 +13733,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13648,7 +13770,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13681,7 +13807,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13714,7 +13844,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13747,7 +13881,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13780,7 +13918,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13813,7 +13955,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13846,7 +13992,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13879,7 +14029,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13912,7 +14066,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13945,7 +14103,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13978,7 +14140,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14011,7 +14177,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14044,7 +14214,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14077,7 +14251,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14110,7 +14288,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14143,7 +14325,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14176,7 +14362,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14209,7 +14399,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14242,7 +14436,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14275,7 +14473,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14308,7 +14510,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14341,7 +14547,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14374,7 +14584,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14407,7 +14621,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14440,7 +14658,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14473,7 +14695,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14506,7 +14732,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14539,7 +14769,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14572,7 +14806,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14605,7 +14843,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14634,11 +14876,15 @@
         <v>3574082.99849559</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14671,7 +14917,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14704,7 +14954,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14737,7 +14991,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14770,7 +15028,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14803,7 +15065,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14836,7 +15102,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14869,7 +15139,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14902,7 +15176,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14935,7 +15213,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14968,7 +15250,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14997,11 +15283,15 @@
         <v>3623505.79534811</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15030,11 +15320,15 @@
         <v>3251334.37204811</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15067,7 +15361,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15100,7 +15398,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15133,7 +15435,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15166,7 +15472,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15199,7 +15509,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15232,7 +15546,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15265,7 +15583,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15298,7 +15620,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15331,7 +15657,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15360,14 +15690,16 @@
         <v>3146867.466648111</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
-      <c r="L421" t="n">
-        <v>1</v>
-      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L421" t="inlineStr"/>
       <c r="M421" t="inlineStr"/>
     </row>
     <row r="422">
@@ -15393,7 +15725,7 @@
         <v>3146867.466648111</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15426,7 +15758,7 @@
         <v>3146867.466648111</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15492,7 +15824,7 @@
         <v>3146867.466648111</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15558,7 +15890,7 @@
         <v>3083964.391748111</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15624,7 +15956,7 @@
         <v>3101439.618148111</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15657,7 +15989,7 @@
         <v>3108939.618148111</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15756,7 +16088,7 @@
         <v>3273584.582648111</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15789,7 +16121,7 @@
         <v>3315482.438848111</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15822,7 +16154,7 @@
         <v>3315354.438848111</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15855,7 +16187,7 @@
         <v>3315354.438848111</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15888,7 +16220,7 @@
         <v>3315354.438848111</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15921,7 +16253,7 @@
         <v>3315480.431809391</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15954,7 +16286,7 @@
         <v>3296480.431809391</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16020,7 +16352,7 @@
         <v>3479529.955253431</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16053,7 +16385,7 @@
         <v>3481582.143488021</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16086,7 +16418,7 @@
         <v>3422273.164588021</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16152,7 +16484,7 @@
         <v>3543315.129348111</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16185,7 +16517,7 @@
         <v>3468125.243448111</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16218,7 +16550,7 @@
         <v>3372827.753048111</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16251,7 +16583,7 @@
         <v>3530289.216348111</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16284,7 +16616,7 @@
         <v>3486307.993648111</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16317,7 +16649,7 @@
         <v>3486186.696948112</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16350,7 +16682,7 @@
         <v>3493598.075448112</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16383,7 +16715,7 @@
         <v>3493598.075448112</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16416,7 +16748,7 @@
         <v>3493598.075448112</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16647,7 +16979,7 @@
         <v>3517964.722248111</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16680,7 +17012,7 @@
         <v>3517964.722248111</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16713,7 +17045,7 @@
         <v>3398546.369348112</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16746,7 +17078,7 @@
         <v>3398546.369348112</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16779,7 +17111,7 @@
         <v>3398546.369348112</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16812,7 +17144,7 @@
         <v>3298546.369348112</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16878,7 +17210,7 @@
         <v>3307070.444948112</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16944,7 +17276,7 @@
         <v>3303502.804948112</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16977,7 +17309,7 @@
         <v>3303502.804948112</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17010,7 +17342,7 @@
         <v>3404957.423248112</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17043,7 +17375,7 @@
         <v>3404957.423248112</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17076,7 +17408,7 @@
         <v>3404957.423248112</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17109,7 +17441,7 @@
         <v>3394278.712348112</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17142,7 +17474,7 @@
         <v>3394500.722398362</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17175,7 +17507,7 @@
         <v>3369421.081198362</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17208,7 +17540,7 @@
         <v>3358034.479198362</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17241,7 +17573,7 @@
         <v>3368064.707798362</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17274,7 +17606,7 @@
         <v>3368064.707798362</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17307,7 +17639,7 @@
         <v>3368064.707798362</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17340,7 +17672,7 @@
         <v>3368064.707798362</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17373,7 +17705,7 @@
         <v>3890484.335748112</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17406,7 +17738,7 @@
         <v>3890484.335748112</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17439,7 +17771,7 @@
         <v>3752842.434048112</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17472,7 +17804,7 @@
         <v>3786540.116348112</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17505,7 +17837,7 @@
         <v>3786540.116348112</v>
       </c>
       <c r="H486" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17538,7 +17870,7 @@
         <v>4984199.610948113</v>
       </c>
       <c r="H487" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17571,7 +17903,7 @@
         <v>5667956.663148113</v>
       </c>
       <c r="H488" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17604,7 +17936,7 @@
         <v>6350976.278848113</v>
       </c>
       <c r="H489" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17637,7 +17969,7 @@
         <v>6350976.278848113</v>
       </c>
       <c r="H490" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17670,7 +18002,7 @@
         <v>6350976.278848113</v>
       </c>
       <c r="H491" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17703,7 +18035,7 @@
         <v>6232952.891848112</v>
       </c>
       <c r="H492" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17736,7 +18068,7 @@
         <v>6548042.749048113</v>
       </c>
       <c r="H493" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17769,7 +18101,7 @@
         <v>6768562.149948113</v>
       </c>
       <c r="H494" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17802,7 +18134,7 @@
         <v>6768562.149948113</v>
       </c>
       <c r="H495" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17835,7 +18167,7 @@
         <v>6450751.746107693</v>
       </c>
       <c r="H496" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17868,7 +18200,7 @@
         <v>6417831.846107692</v>
       </c>
       <c r="H497" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17901,7 +18233,7 @@
         <v>6352159.849507692</v>
       </c>
       <c r="H498" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17934,7 +18266,7 @@
         <v>6352159.849507692</v>
       </c>
       <c r="H499" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17967,7 +18299,7 @@
         <v>6352159.849507692</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18000,7 +18332,7 @@
         <v>6225266.896707692</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18033,7 +18365,7 @@
         <v>6247076.303807693</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18066,7 +18398,7 @@
         <v>6247299.620790653</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18099,7 +18431,7 @@
         <v>6247299.620790653</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18132,7 +18464,7 @@
         <v>6247299.620790653</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18165,7 +18497,7 @@
         <v>6247299.620790653</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18198,7 +18530,7 @@
         <v>6247249.579390652</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18231,7 +18563,7 @@
         <v>5210333.616653472</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18264,7 +18596,7 @@
         <v>5442962.165653472</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18297,7 +18629,7 @@
         <v>5543122.566655972</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18330,7 +18662,7 @@
         <v>5543122.566655972</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18363,7 +18695,7 @@
         <v>5540577.256655972</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18396,7 +18728,7 @@
         <v>5540577.256655972</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18429,7 +18761,7 @@
         <v>5540577.256655972</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18462,7 +18794,7 @@
         <v>5555623.308393562</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18495,7 +18827,7 @@
         <v>5555623.308393562</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18528,7 +18860,7 @@
         <v>5555734.631038852</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18561,7 +18893,7 @@
         <v>5541622.856084142</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18594,7 +18926,7 @@
         <v>5551901.390912162</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18627,7 +18959,7 @@
         <v>5474694.229012162</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18660,7 +18992,7 @@
         <v>5448240.954112163</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18792,7 +19124,7 @@
         <v>4946373.047212163</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18825,7 +19157,7 @@
         <v>4960493.345012163</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18858,7 +19190,7 @@
         <v>4930038.606166383</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18891,7 +19223,7 @@
         <v>4930038.606166383</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18924,7 +19256,7 @@
         <v>4930038.606166383</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18957,7 +19289,7 @@
         <v>4911734.913966383</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18990,7 +19322,7 @@
         <v>4944093.244766383</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19023,7 +19355,7 @@
         <v>4944093.244766383</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19056,7 +19388,7 @@
         <v>4943942.992166382</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19089,7 +19421,7 @@
         <v>4944491.762541402</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19122,7 +19454,7 @@
         <v>4944491.762541402</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19155,7 +19487,7 @@
         <v>4943491.762541402</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19188,7 +19520,7 @@
         <v>4943796.762541402</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19221,7 +19553,7 @@
         <v>4942731.466841402</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19254,7 +19586,7 @@
         <v>4942731.466841402</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19287,7 +19619,7 @@
         <v>4942731.466841402</v>
       </c>
       <c r="H540" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19320,7 +19652,7 @@
         <v>4942556.311541403</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19353,7 +19685,7 @@
         <v>4637933.853141403</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19386,7 +19718,7 @@
         <v>4661587.354400842</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19419,7 +19751,7 @@
         <v>4555811.441300843</v>
       </c>
       <c r="H544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19452,7 +19784,7 @@
         <v>4098454.193500843</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19485,7 +19817,7 @@
         <v>4320723.844900843</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19518,7 +19850,7 @@
         <v>4184581.363900843</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19683,7 +20015,7 @@
         <v>4006600.391400842</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19716,7 +20048,7 @@
         <v>3979076.257100842</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19749,7 +20081,7 @@
         <v>3914765.082400843</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19782,7 +20114,7 @@
         <v>4055599.974100843</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19815,7 +20147,7 @@
         <v>4062523.946423623</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19848,7 +20180,7 @@
         <v>4130039.791223623</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19881,7 +20213,7 @@
         <v>4074606.775323623</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19914,7 +20246,7 @@
         <v>4131392.257323623</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19947,7 +20279,7 @@
         <v>4138709.623623623</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19980,7 +20312,7 @@
         <v>4073874.537623622</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20013,7 +20345,7 @@
         <v>4073874.537623622</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20046,7 +20378,7 @@
         <v>4073874.537623622</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20079,7 +20411,7 @@
         <v>4073874.537623622</v>
       </c>
       <c r="H564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20112,7 +20444,7 @@
         <v>4173602.694423622</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20145,7 +20477,7 @@
         <v>4172406.121334203</v>
       </c>
       <c r="H566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20178,7 +20510,7 @@
         <v>3661531.365034203</v>
       </c>
       <c r="H567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20211,7 +20543,7 @@
         <v>3664911.171734203</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -20244,7 +20576,7 @@
         <v>4355963.908144782</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20277,7 +20609,7 @@
         <v>4353727.868144782</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -22125,7 +22457,7 @@
         <v>2214580.466639332</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -25436,6 +25768,6 @@
       <c r="M726" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest TRX.xlsx
+++ b/BackTest/2020-01-23 BackTest TRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2794,17 +2794,11 @@
         <v>-2606095.6102848</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>19.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2833,17 +2827,11 @@
         <v>-2606210.1524848</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>19.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2872,17 +2860,11 @@
         <v>-2606153.5971848</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>19.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2911,17 +2893,11 @@
         <v>-2608669.78836108</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>19.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2950,17 +2926,11 @@
         <v>-2608669.78836108</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>19.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2989,17 +2959,11 @@
         <v>-2611669.78836108</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>19.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3036,7 +3000,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -3145,11 +3109,9 @@
         <v>350268.7114389203</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>19.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
@@ -4405,18 +4367,16 @@
         <v>1354184.118496481</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
@@ -4442,15 +4402,11 @@
         <v>1354184.118496481</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4479,15 +4435,11 @@
         <v>1435013.118496481</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4516,15 +4468,11 @@
         <v>1667785.738496481</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4553,15 +4501,11 @@
         <v>1595590.83859648</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4590,15 +4534,11 @@
         <v>1593001.603196481</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4627,15 +4567,11 @@
         <v>1593001.603196481</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4664,15 +4600,11 @@
         <v>1593001.603196481</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4701,15 +4633,11 @@
         <v>1562625.700796481</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4738,15 +4666,11 @@
         <v>1586836.620296481</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4775,15 +4699,11 @@
         <v>1552355.18189648</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4812,15 +4732,11 @@
         <v>1474552.18189648</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4849,15 +4765,11 @@
         <v>1477602.18189648</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4886,15 +4798,11 @@
         <v>1569216.65589648</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4923,15 +4831,11 @@
         <v>1570216.65589648</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4964,11 +4868,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5001,11 +4901,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5038,11 +4934,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5075,11 +4967,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5112,11 +5000,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5149,11 +5033,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5186,11 +5066,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5223,11 +5099,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5260,11 +5132,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5297,11 +5165,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5334,11 +5198,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5371,11 +5231,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5408,11 +5264,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5445,11 +5297,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5482,11 +5330,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5519,11 +5363,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5556,11 +5396,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5593,11 +5429,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5630,11 +5462,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5667,11 +5495,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5704,11 +5528,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5741,11 +5561,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5778,11 +5594,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5815,11 +5627,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5852,11 +5660,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5889,11 +5693,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5926,11 +5726,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5963,11 +5759,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6000,11 +5792,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6037,11 +5825,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6074,11 +5858,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6111,11 +5891,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6148,11 +5924,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6185,11 +5957,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6222,11 +5990,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6259,11 +6023,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6296,11 +6056,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6333,11 +6089,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6370,11 +6122,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6407,11 +6155,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6444,11 +6188,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6481,11 +6221,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6518,11 +6254,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6555,11 +6287,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6592,11 +6320,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6629,11 +6353,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6666,11 +6386,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6703,11 +6419,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6740,11 +6452,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6777,11 +6485,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6814,11 +6518,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6851,11 +6551,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6888,11 +6584,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6925,11 +6617,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6962,11 +6650,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6999,11 +6683,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7036,11 +6716,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7073,11 +6749,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7110,11 +6782,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7147,11 +6815,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7184,11 +6848,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7221,11 +6881,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7258,11 +6914,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7295,11 +6947,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7332,11 +6980,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7369,11 +7013,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7406,11 +7046,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7443,11 +7079,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7480,11 +7112,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7517,11 +7145,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7554,11 +7178,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7591,11 +7211,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7628,11 +7244,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7665,11 +7277,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7702,11 +7310,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7739,11 +7343,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7776,11 +7376,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7813,11 +7409,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7850,11 +7442,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7887,11 +7475,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7924,11 +7508,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7961,11 +7541,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7998,11 +7574,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8035,11 +7607,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8072,11 +7640,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8109,11 +7673,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8146,11 +7706,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8183,11 +7739,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8220,11 +7772,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8257,11 +7805,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8294,11 +7838,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8331,11 +7871,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8368,11 +7904,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8405,11 +7937,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8442,11 +7970,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8479,11 +8003,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8516,11 +8036,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8553,11 +8069,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8590,11 +8102,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8627,11 +8135,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8664,11 +8168,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8701,11 +8201,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8738,11 +8234,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8775,11 +8267,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8812,11 +8300,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8849,11 +8333,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8886,11 +8366,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8923,11 +8399,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8960,11 +8432,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8997,11 +8465,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9034,11 +8498,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9071,11 +8531,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9108,11 +8564,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9145,11 +8597,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9182,11 +8630,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9219,11 +8663,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9256,11 +8696,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9293,11 +8729,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9330,11 +8762,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9367,11 +8795,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9404,11 +8828,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9441,11 +8861,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9478,11 +8894,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9515,11 +8927,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9552,11 +8960,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9589,11 +8993,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9626,11 +9026,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9663,11 +9059,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9700,11 +9092,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9737,11 +9125,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9774,11 +9158,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9811,11 +9191,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9848,11 +9224,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9885,11 +9257,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9922,11 +9290,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9959,11 +9323,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9996,11 +9356,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10033,11 +9389,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10070,11 +9422,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10107,11 +9455,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10144,11 +9488,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10181,11 +9521,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10218,11 +9554,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10255,11 +9587,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10292,11 +9620,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10329,11 +9653,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10366,11 +9686,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10403,11 +9719,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10440,11 +9752,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10477,11 +9785,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10514,11 +9818,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10551,11 +9851,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10588,11 +9884,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10625,11 +9917,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10662,11 +9950,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10699,11 +9983,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10736,11 +10016,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10773,11 +10049,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10810,11 +10082,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10847,11 +10115,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10884,11 +10148,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10921,11 +10181,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10958,11 +10214,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10995,11 +10247,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11032,11 +10280,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11069,11 +10313,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11106,11 +10346,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11143,11 +10379,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11180,11 +10412,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11217,11 +10445,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11254,11 +10478,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11291,11 +10511,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11328,11 +10544,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11365,11 +10577,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11402,11 +10610,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11439,11 +10643,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11476,11 +10676,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11513,11 +10709,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11550,11 +10742,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11587,11 +10775,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11624,11 +10808,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11661,11 +10841,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11698,11 +10874,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11735,11 +10907,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11772,11 +10940,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11809,11 +10973,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11846,11 +11006,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11883,11 +11039,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11920,11 +11072,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11957,11 +11105,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11994,11 +11138,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12031,11 +11171,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12068,11 +11204,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12105,11 +11237,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12142,11 +11270,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12179,11 +11303,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12216,11 +11336,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12253,11 +11369,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12290,11 +11402,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12327,11 +11435,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12364,11 +11468,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12401,11 +11501,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12438,11 +11534,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12475,11 +11567,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12512,11 +11600,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12549,11 +11633,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12586,11 +11666,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12623,11 +11699,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12660,11 +11732,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12697,11 +11765,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12734,11 +11798,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12771,11 +11831,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12808,11 +11864,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12845,11 +11897,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12882,11 +11930,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12919,11 +11963,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12956,11 +11996,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12993,11 +12029,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13030,11 +12062,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13067,11 +12095,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13104,11 +12128,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13141,11 +12161,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13178,11 +12194,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13215,11 +12227,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13252,11 +12260,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13289,11 +12293,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13326,11 +12326,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13363,11 +12359,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13400,11 +12392,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13437,11 +12425,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13474,11 +12458,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13511,11 +12491,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13548,11 +12524,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13585,11 +12557,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13622,11 +12590,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13659,11 +12623,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13696,11 +12656,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13733,11 +12689,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13770,11 +12722,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13807,11 +12755,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13844,11 +12788,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13881,11 +12821,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13918,11 +12854,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13955,11 +12887,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13992,11 +12920,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14029,11 +12953,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14066,11 +12986,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14103,11 +13019,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14140,11 +13052,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14177,11 +13085,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14214,11 +13118,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14251,11 +13151,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14288,11 +13184,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14325,11 +13217,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14362,11 +13250,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14399,11 +13283,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14436,11 +13316,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14473,11 +13349,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14510,11 +13382,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14547,11 +13415,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14584,11 +13448,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14621,11 +13481,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14658,11 +13514,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14695,11 +13547,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14732,11 +13580,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14769,11 +13613,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14806,11 +13646,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14843,11 +13679,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14880,11 +13712,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14917,11 +13745,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14954,11 +13778,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14991,11 +13811,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15028,11 +13844,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15065,11 +13877,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15102,11 +13910,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15139,11 +13943,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15176,11 +13976,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15213,11 +14009,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15250,11 +14042,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15287,11 +14075,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15324,11 +14108,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15361,11 +14141,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15398,11 +14174,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15435,11 +14207,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15472,11 +14240,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15509,11 +14273,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15546,11 +14306,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15583,11 +14339,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15620,11 +14372,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15657,11 +14405,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15690,16 +14434,14 @@
         <v>3146867.466648111</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
+      <c r="L421" t="n">
+        <v>1</v>
+      </c>
       <c r="M421" t="inlineStr"/>
     </row>
     <row r="422">
@@ -15725,7 +14467,7 @@
         <v>3146867.466648111</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15758,7 +14500,7 @@
         <v>3146867.466648111</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15824,7 +14566,7 @@
         <v>3146867.466648111</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15890,7 +14632,7 @@
         <v>3083964.391748111</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15956,7 +14698,7 @@
         <v>3101439.618148111</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15989,7 +14731,7 @@
         <v>3108939.618148111</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16088,7 +14830,7 @@
         <v>3273584.582648111</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16121,7 +14863,7 @@
         <v>3315482.438848111</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16154,7 +14896,7 @@
         <v>3315354.438848111</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16187,7 +14929,7 @@
         <v>3315354.438848111</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16220,7 +14962,7 @@
         <v>3315354.438848111</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16253,7 +14995,7 @@
         <v>3315480.431809391</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16286,7 +15028,7 @@
         <v>3296480.431809391</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16352,7 +15094,7 @@
         <v>3479529.955253431</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16385,7 +15127,7 @@
         <v>3481582.143488021</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16418,7 +15160,7 @@
         <v>3422273.164588021</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16484,7 +15226,7 @@
         <v>3543315.129348111</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16517,7 +15259,7 @@
         <v>3468125.243448111</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16550,7 +15292,7 @@
         <v>3372827.753048111</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16583,7 +15325,7 @@
         <v>3530289.216348111</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16616,7 +15358,7 @@
         <v>3486307.993648111</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16649,7 +15391,7 @@
         <v>3486186.696948112</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16682,7 +15424,7 @@
         <v>3493598.075448112</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16715,7 +15457,7 @@
         <v>3493598.075448112</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16748,7 +15490,7 @@
         <v>3493598.075448112</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16979,7 +15721,7 @@
         <v>3517964.722248111</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17012,7 +15754,7 @@
         <v>3517964.722248111</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17045,7 +15787,7 @@
         <v>3398546.369348112</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17078,7 +15820,7 @@
         <v>3398546.369348112</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17111,7 +15853,7 @@
         <v>3398546.369348112</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17144,7 +15886,7 @@
         <v>3298546.369348112</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17210,7 +15952,7 @@
         <v>3307070.444948112</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17276,7 +16018,7 @@
         <v>3303502.804948112</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17309,7 +16051,7 @@
         <v>3303502.804948112</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17342,7 +16084,7 @@
         <v>3404957.423248112</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17375,7 +16117,7 @@
         <v>3404957.423248112</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17408,7 +16150,7 @@
         <v>3404957.423248112</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17441,7 +16183,7 @@
         <v>3394278.712348112</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17474,7 +16216,7 @@
         <v>3394500.722398362</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17507,7 +16249,7 @@
         <v>3369421.081198362</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17540,7 +16282,7 @@
         <v>3358034.479198362</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17573,7 +16315,7 @@
         <v>3368064.707798362</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17606,7 +16348,7 @@
         <v>3368064.707798362</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17639,7 +16381,7 @@
         <v>3368064.707798362</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17672,7 +16414,7 @@
         <v>3368064.707798362</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17705,7 +16447,7 @@
         <v>3890484.335748112</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17738,7 +16480,7 @@
         <v>3890484.335748112</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17771,7 +16513,7 @@
         <v>3752842.434048112</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17804,7 +16546,7 @@
         <v>3786540.116348112</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17837,7 +16579,7 @@
         <v>3786540.116348112</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17870,7 +16612,7 @@
         <v>4984199.610948113</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17903,7 +16645,7 @@
         <v>5667956.663148113</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17936,7 +16678,7 @@
         <v>6350976.278848113</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17969,7 +16711,7 @@
         <v>6350976.278848113</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18002,7 +16744,7 @@
         <v>6350976.278848113</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18035,7 +16777,7 @@
         <v>6232952.891848112</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18068,7 +16810,7 @@
         <v>6548042.749048113</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18101,7 +16843,7 @@
         <v>6768562.149948113</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18134,7 +16876,7 @@
         <v>6768562.149948113</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18167,7 +16909,7 @@
         <v>6450751.746107693</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18200,7 +16942,7 @@
         <v>6417831.846107692</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18233,7 +16975,7 @@
         <v>6352159.849507692</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18266,7 +17008,7 @@
         <v>6352159.849507692</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18299,7 +17041,7 @@
         <v>6352159.849507692</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18332,7 +17074,7 @@
         <v>6225266.896707692</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18365,7 +17107,7 @@
         <v>6247076.303807693</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18398,7 +17140,7 @@
         <v>6247299.620790653</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18431,7 +17173,7 @@
         <v>6247299.620790653</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18464,7 +17206,7 @@
         <v>6247299.620790653</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18497,7 +17239,7 @@
         <v>6247299.620790653</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18530,7 +17272,7 @@
         <v>6247249.579390652</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18563,7 +17305,7 @@
         <v>5210333.616653472</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18596,7 +17338,7 @@
         <v>5442962.165653472</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18629,7 +17371,7 @@
         <v>5543122.566655972</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18662,7 +17404,7 @@
         <v>5543122.566655972</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18695,7 +17437,7 @@
         <v>5540577.256655972</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18728,7 +17470,7 @@
         <v>5540577.256655972</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18761,7 +17503,7 @@
         <v>5540577.256655972</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18794,7 +17536,7 @@
         <v>5555623.308393562</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18827,7 +17569,7 @@
         <v>5555623.308393562</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18860,7 +17602,7 @@
         <v>5555734.631038852</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18893,7 +17635,7 @@
         <v>5541622.856084142</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18926,7 +17668,7 @@
         <v>5551901.390912162</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18959,7 +17701,7 @@
         <v>5474694.229012162</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18992,7 +17734,7 @@
         <v>5448240.954112163</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19124,7 +17866,7 @@
         <v>4946373.047212163</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19157,7 +17899,7 @@
         <v>4960493.345012163</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19190,7 +17932,7 @@
         <v>4930038.606166383</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19223,7 +17965,7 @@
         <v>4930038.606166383</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19256,7 +17998,7 @@
         <v>4930038.606166383</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19289,7 +18031,7 @@
         <v>4911734.913966383</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19322,7 +18064,7 @@
         <v>4944093.244766383</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19355,7 +18097,7 @@
         <v>4944093.244766383</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19388,7 +18130,7 @@
         <v>4943942.992166382</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19421,7 +18163,7 @@
         <v>4944491.762541402</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19454,7 +18196,7 @@
         <v>4944491.762541402</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19487,7 +18229,7 @@
         <v>4943491.762541402</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19520,7 +18262,7 @@
         <v>4943796.762541402</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19553,7 +18295,7 @@
         <v>4942731.466841402</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19586,7 +18328,7 @@
         <v>4942731.466841402</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19619,7 +18361,7 @@
         <v>4942731.466841402</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19652,7 +18394,7 @@
         <v>4942556.311541403</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19784,7 +18526,7 @@
         <v>4098454.193500843</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19817,7 +18559,7 @@
         <v>4320723.844900843</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19850,7 +18592,7 @@
         <v>4184581.363900843</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20048,7 +18790,7 @@
         <v>3979076.257100842</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20081,7 +18823,7 @@
         <v>3914765.082400843</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20114,7 +18856,7 @@
         <v>4055599.974100843</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20147,7 +18889,7 @@
         <v>4062523.946423623</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20180,7 +18922,7 @@
         <v>4130039.791223623</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -25768,6 +24510,6 @@
       <c r="M726" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest TRX.xlsx
+++ b/BackTest/2020-01-23 BackTest TRX.xlsx
@@ -2860,10 +2860,14 @@
         <v>-2606153.5971848</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="J75" t="n">
+        <v>19.41</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
@@ -2893,11 +2897,19 @@
         <v>-2608669.78836108</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>19.45</v>
+      </c>
+      <c r="J76" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +2938,19 @@
         <v>-2608669.78836108</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J77" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +2979,19 @@
         <v>-2611669.78836108</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J78" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2997,10 +3025,12 @@
       <c r="I79" t="n">
         <v>19.34</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>19.41</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -3036,7 +3066,9 @@
       <c r="I80" t="n">
         <v>19.3</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>19.41</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3075,7 +3107,9 @@
       <c r="I81" t="n">
         <v>19.37</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>19.41</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3109,10 +3143,14 @@
         <v>350268.7114389203</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>19.45</v>
+      </c>
+      <c r="J82" t="n">
+        <v>19.41</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3149,7 +3187,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>19.41</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3186,7 +3226,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>19.41</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3223,7 +3265,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>19.41</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3260,7 +3304,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>19.41</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3297,7 +3343,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>19.41</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3334,7 +3382,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>19.41</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3371,7 +3421,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>19.41</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3408,7 +3460,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>19.41</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3445,7 +3499,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>19.41</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3482,7 +3538,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>19.41</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3519,7 +3577,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>19.41</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3556,7 +3616,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>19.41</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3593,7 +3655,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>19.41</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3630,7 +3694,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>19.41</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3667,7 +3733,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>19.41</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3704,7 +3772,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>19.41</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3741,7 +3811,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>19.41</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3778,7 +3850,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>19.41</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3815,7 +3889,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>19.41</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3852,7 +3928,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>19.41</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3889,7 +3967,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>19.41</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3926,7 +4006,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>19.41</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3963,7 +4045,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>19.41</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4000,7 +4084,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>19.41</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4037,7 +4123,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>19.41</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4074,7 +4162,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>19.41</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4111,7 +4201,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>19.41</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4148,7 +4240,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>19.41</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4185,7 +4279,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>19.41</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4222,7 +4318,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>19.41</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4259,7 +4357,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>19.41</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4296,7 +4396,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>19.41</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4333,7 +4435,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>19.41</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4367,16 +4471,20 @@
         <v>1354184.118496481</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>19.41</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
       <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
@@ -4402,11 +4510,17 @@
         <v>1354184.118496481</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4435,11 +4549,17 @@
         <v>1435013.118496481</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4468,11 +4588,17 @@
         <v>1667785.738496481</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4501,11 +4627,17 @@
         <v>1595590.83859648</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4534,11 +4666,17 @@
         <v>1593001.603196481</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4567,11 +4705,17 @@
         <v>1593001.603196481</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4600,11 +4744,17 @@
         <v>1593001.603196481</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4633,11 +4783,17 @@
         <v>1562625.700796481</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4666,11 +4822,17 @@
         <v>1586836.620296481</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4699,11 +4861,17 @@
         <v>1552355.18189648</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4732,11 +4900,17 @@
         <v>1474552.18189648</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4765,11 +4939,17 @@
         <v>1477602.18189648</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4798,11 +4978,17 @@
         <v>1569216.65589648</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4831,11 +5017,17 @@
         <v>1570216.65589648</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4867,8 +5059,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4900,8 +5098,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4933,8 +5137,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4966,8 +5176,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4999,8 +5215,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5032,8 +5254,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5065,8 +5293,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5098,8 +5332,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5131,8 +5371,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5164,8 +5410,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5197,8 +5449,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5230,8 +5488,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5263,8 +5527,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5296,8 +5566,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5329,8 +5605,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5362,8 +5644,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5395,8 +5683,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5428,8 +5722,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5461,8 +5761,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5494,8 +5800,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5527,8 +5839,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5560,8 +5878,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5593,8 +5917,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5626,8 +5956,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5659,8 +5995,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5692,8 +6034,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5725,8 +6073,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5758,8 +6112,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5791,8 +6151,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5824,8 +6190,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5857,8 +6229,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5890,8 +6268,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5923,8 +6307,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5956,8 +6346,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5989,8 +6385,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6022,8 +6424,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6055,8 +6463,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6088,8 +6502,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6121,8 +6541,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6154,8 +6580,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6187,8 +6619,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6220,8 +6658,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6253,8 +6697,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6286,8 +6736,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6319,8 +6775,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6352,8 +6814,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6385,8 +6853,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6418,8 +6892,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6451,8 +6931,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6484,8 +6970,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6517,8 +7009,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6550,8 +7048,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6583,8 +7087,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6616,8 +7126,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6649,8 +7165,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6682,8 +7204,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6715,8 +7243,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6748,8 +7282,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6781,8 +7321,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6814,8 +7360,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6847,8 +7399,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6880,8 +7438,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6913,8 +7477,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6946,8 +7516,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6979,8 +7555,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7012,8 +7594,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7045,8 +7633,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7078,8 +7672,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7111,8 +7711,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7144,8 +7750,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7177,8 +7789,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7210,8 +7828,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7243,8 +7867,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7276,8 +7906,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7309,8 +7945,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7342,8 +7984,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7375,8 +8023,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7408,8 +8062,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7441,8 +8101,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7474,8 +8140,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7507,8 +8179,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7540,8 +8218,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7573,8 +8257,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7606,8 +8296,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7639,8 +8335,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7672,8 +8374,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7705,8 +8413,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7738,8 +8452,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7771,8 +8491,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7804,8 +8530,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7837,8 +8569,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7870,8 +8608,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7903,8 +8647,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7936,8 +8686,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7969,8 +8725,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8002,8 +8764,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8035,8 +8803,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8068,8 +8842,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8101,8 +8881,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8134,8 +8920,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8167,8 +8959,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8200,8 +8998,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8233,8 +9037,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8266,8 +9076,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8299,8 +9115,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8332,8 +9154,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8365,8 +9193,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8398,8 +9232,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8431,8 +9271,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8464,8 +9310,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8497,8 +9349,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8530,8 +9388,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8563,8 +9427,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8596,8 +9466,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8629,8 +9505,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8662,8 +9544,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8695,8 +9583,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8728,8 +9622,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8761,8 +9661,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8794,8 +9700,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8827,8 +9739,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8860,8 +9778,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8893,8 +9817,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8926,8 +9856,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8959,8 +9895,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8992,8 +9934,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9025,8 +9973,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9058,8 +10012,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9091,8 +10051,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9124,8 +10090,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9157,8 +10129,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9190,8 +10168,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9223,8 +10207,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9256,8 +10246,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9289,8 +10285,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9322,8 +10324,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9355,8 +10363,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9388,8 +10402,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9421,8 +10441,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9454,8 +10480,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9487,8 +10519,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9520,8 +10558,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9553,8 +10597,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9586,8 +10636,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9619,8 +10675,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9652,8 +10714,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9685,8 +10753,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9718,8 +10792,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9751,8 +10831,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9784,8 +10870,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9817,8 +10909,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9850,8 +10948,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9883,8 +10987,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9916,8 +11026,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9949,8 +11065,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9982,8 +11104,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10015,8 +11143,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10048,8 +11182,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10081,8 +11221,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10114,8 +11260,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10147,8 +11299,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10180,8 +11338,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10213,8 +11377,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10246,8 +11416,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10279,8 +11455,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10312,8 +11494,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10345,8 +11533,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10378,8 +11572,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10411,8 +11611,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10444,8 +11650,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10477,8 +11689,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10510,8 +11728,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10543,8 +11767,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10576,8 +11806,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10609,8 +11845,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10642,8 +11884,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10675,8 +11923,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10708,8 +11962,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10741,8 +12001,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10774,8 +12040,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10807,8 +12079,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10840,8 +12118,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10873,8 +12157,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10906,8 +12196,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10939,8 +12235,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10972,8 +12274,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11005,8 +12313,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11038,8 +12352,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11071,8 +12391,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11104,8 +12430,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11137,8 +12469,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11170,8 +12508,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11203,8 +12547,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11236,8 +12586,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11269,8 +12625,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11302,8 +12664,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11335,8 +12703,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11368,8 +12742,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11401,8 +12781,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11434,8 +12820,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11467,8 +12859,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11500,8 +12898,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11533,8 +12937,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11566,8 +12976,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11599,8 +13015,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11632,8 +13054,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11665,8 +13093,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11698,8 +13132,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11731,8 +13171,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11764,8 +13210,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11797,8 +13249,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11830,8 +13288,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11863,8 +13327,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11896,8 +13366,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11929,8 +13405,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11962,8 +13444,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11995,8 +13483,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12028,8 +13522,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12061,8 +13561,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12094,8 +13600,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12127,8 +13639,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12160,8 +13678,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12193,8 +13717,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12226,8 +13756,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12259,8 +13795,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12292,8 +13834,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12325,8 +13873,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12358,8 +13912,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12391,8 +13951,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12424,8 +13990,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12457,8 +14029,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12490,8 +14068,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12523,8 +14107,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12556,8 +14146,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12589,8 +14185,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12622,8 +14224,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12655,8 +14263,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12688,8 +14302,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12721,8 +14341,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12754,8 +14380,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12787,8 +14419,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12820,8 +14458,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12853,8 +14497,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12886,8 +14536,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12919,8 +14575,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12952,8 +14614,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12985,8 +14653,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13018,8 +14692,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13051,8 +14731,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13084,8 +14770,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13117,8 +14809,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13150,8 +14848,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13183,8 +14887,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13216,8 +14926,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13249,8 +14965,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13282,8 +15004,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13315,8 +15043,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13348,8 +15082,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13381,8 +15121,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13414,8 +15160,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13447,8 +15199,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13480,8 +15238,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13513,8 +15277,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13546,8 +15316,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13579,8 +15355,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13612,8 +15394,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13645,8 +15433,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13678,8 +15472,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13711,8 +15511,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13744,8 +15550,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13777,8 +15589,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13810,8 +15628,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13843,8 +15667,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13876,8 +15706,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13909,8 +15745,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13942,8 +15784,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13975,8 +15823,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14008,8 +15862,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14041,8 +15901,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14074,8 +15940,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14107,8 +15979,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14140,8 +16018,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14173,8 +16057,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14206,8 +16096,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14239,8 +16135,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14272,8 +16174,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14305,8 +16213,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14338,8 +16252,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14371,8 +16291,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14404,8 +16330,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14437,8 +16369,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14470,8 +16408,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14503,8 +16447,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14536,8 +16486,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14569,8 +16525,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14602,8 +16564,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14635,8 +16603,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14668,8 +16642,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14701,8 +16681,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14734,8 +16720,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14767,8 +16759,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14800,8 +16798,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14833,8 +16837,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14866,8 +16876,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14899,8 +16915,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14932,8 +16954,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14965,8 +16993,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14998,8 +17032,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15031,8 +17071,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15064,8 +17110,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15097,8 +17149,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15130,8 +17188,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15163,8 +17227,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15196,8 +17266,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15229,8 +17305,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15262,8 +17344,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15295,8 +17383,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15328,8 +17422,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15361,8 +17461,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15394,8 +17500,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15427,8 +17539,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15460,8 +17578,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15493,8 +17617,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15526,8 +17656,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15559,8 +17695,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15592,8 +17734,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15625,8 +17773,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15658,8 +17812,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15691,8 +17851,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15724,8 +17890,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15757,8 +17929,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15790,8 +17968,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15823,8 +18007,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15856,8 +18046,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15889,8 +18085,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15922,8 +18124,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15955,8 +18163,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15988,8 +18202,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16021,8 +18241,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16054,8 +18280,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16087,8 +18319,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16120,8 +18358,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16153,8 +18397,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16186,8 +18436,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16219,8 +18475,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16252,8 +18514,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16285,8 +18553,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16318,8 +18592,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16351,8 +18631,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16384,8 +18670,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16417,8 +18709,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16450,8 +18748,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16483,8 +18787,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16516,8 +18826,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16549,8 +18865,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16582,8 +18904,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16615,8 +18943,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16648,8 +18982,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16681,8 +19021,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16711,13 +19057,19 @@
         <v>6350976.278848113</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L490" t="n">
-        <v>1</v>
+        <v>1.025396702730551</v>
       </c>
       <c r="M490" t="inlineStr"/>
     </row>
@@ -16744,7 +19096,7 @@
         <v>6350976.278848113</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16777,7 +19129,7 @@
         <v>6232952.891848112</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16810,7 +19162,7 @@
         <v>6548042.749048113</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16843,7 +19195,7 @@
         <v>6768562.149948113</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16876,7 +19228,7 @@
         <v>6768562.149948113</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16909,7 +19261,7 @@
         <v>6450751.746107693</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16942,7 +19294,7 @@
         <v>6417831.846107692</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16975,7 +19327,7 @@
         <v>6352159.849507692</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17008,7 +19360,7 @@
         <v>6352159.849507692</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17041,7 +19393,7 @@
         <v>6352159.849507692</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17074,7 +19426,7 @@
         <v>6225266.896707692</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17173,7 +19525,7 @@
         <v>6247299.620790653</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17206,7 +19558,7 @@
         <v>6247299.620790653</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17239,7 +19591,7 @@
         <v>6247299.620790653</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17272,7 +19624,7 @@
         <v>6247249.579390652</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17404,7 +19756,7 @@
         <v>5543122.566655972</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17437,7 +19789,7 @@
         <v>5540577.256655972</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17470,7 +19822,7 @@
         <v>5540577.256655972</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17503,7 +19855,7 @@
         <v>5540577.256655972</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17536,7 +19888,7 @@
         <v>5555623.308393562</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17569,7 +19921,7 @@
         <v>5555623.308393562</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17602,7 +19954,7 @@
         <v>5555734.631038852</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17635,7 +19987,7 @@
         <v>5541622.856084142</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17668,7 +20020,7 @@
         <v>5551901.390912162</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
